--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_24_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_24_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>143890.4772330824</v>
+        <v>24830063.9813289</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>143890.4772330824</v>
+        <v>24830063.9813289</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34874.63730032464</v>
+        <v>4367294.718613283</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34874.63730032464</v>
+        <v>4367294.718613283</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1417290070.972076</v>
+        <v>51739985.4350118</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10573.5424219494</v>
+        <v>1048991.093546821</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21076.28493770377</v>
+        <v>2085185.880299868</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31580.94745345811</v>
+        <v>3121762.747053023</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42131.24342640812</v>
+        <v>4153905.343936535</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52525.90945463334</v>
+        <v>5199597.407391965</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>62747.50105639802</v>
+        <v>6266713.468270818</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>73003.74886090576</v>
+        <v>7365002.256560098</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83279.07932598449</v>
+        <v>8467088.494303368</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>94099.01986342689</v>
+        <v>9509233.416098185</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>104115.9407976933</v>
+        <v>10618300.73991812</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>114016.471724852</v>
+        <v>11751564.12337035</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>123927.7619505877</v>
+        <v>12886968.60723943</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>133839.0521763255</v>
+        <v>14022373.09110836</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>144664.7810277099</v>
+        <v>15067924.39120256</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>156986.3714541003</v>
+        <v>15898111.80443315</v>
       </c>
     </row>
   </sheetData>
